--- a/GUI + Reviews/202512/Review 202512/Dataiku/EFESP_EMS_2025-12-11_2025-12-11-23-33-46.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EFESP_EMS_2025-12-11_2025-12-11-23-33-46.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_85EB892929467CE834543A753E95CA1D1DDAF16D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE9F2E2-32B5-49CE-B0E0-648D1D86AB7D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -285,8 +307,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,13 +371,378 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Index Composition"/>
+      <sheetName val="Eligible Companies"/>
+      <sheetName val="Inclusion"/>
+      <sheetName val="Exclusion"/>
+      <sheetName val="Full Universe"/>
+      <sheetName val="Index Market Cap"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>1843899200</v>
+          </cell>
+          <cell r="E2">
+            <v>0.85</v>
+          </cell>
+          <cell r="F2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>1500000000</v>
+          </cell>
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>792283683</v>
+          </cell>
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>450499200</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>419068180</v>
+          </cell>
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+          <cell r="F6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>1055050400</v>
+          </cell>
+          <cell r="E7">
+            <v>0.95</v>
+          </cell>
+          <cell r="F7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>3357576400</v>
+          </cell>
+          <cell r="E8">
+            <v>0.75</v>
+          </cell>
+          <cell r="F8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>1560876000</v>
+          </cell>
+          <cell r="E9">
+            <v>1</v>
+          </cell>
+          <cell r="F9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>3002789000</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+          <cell r="F10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>1200000000</v>
+          </cell>
+          <cell r="E11">
+            <v>0.85</v>
+          </cell>
+          <cell r="F11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>240444520</v>
+          </cell>
+          <cell r="E12">
+            <v>0.8</v>
+          </cell>
+          <cell r="F12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>379645360</v>
+          </cell>
+          <cell r="E13">
+            <v>1</v>
+          </cell>
+          <cell r="F13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>2595227800</v>
+          </cell>
+          <cell r="E14">
+            <v>0.8</v>
+          </cell>
+          <cell r="F14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>566875500</v>
+          </cell>
+          <cell r="E15">
+            <v>0.95</v>
+          </cell>
+          <cell r="F15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>453187130</v>
+          </cell>
+          <cell r="E16">
+            <v>0.85</v>
+          </cell>
+          <cell r="F16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>262245733</v>
+          </cell>
+          <cell r="E17">
+            <v>1</v>
+          </cell>
+          <cell r="F17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>2378947836</v>
+          </cell>
+          <cell r="E18">
+            <v>0.5</v>
+          </cell>
+          <cell r="F18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>296401348</v>
+          </cell>
+          <cell r="E19">
+            <v>1</v>
+          </cell>
+          <cell r="F19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>1907070957</v>
+          </cell>
+          <cell r="E20">
+            <v>1</v>
+          </cell>
+          <cell r="F20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>46002533</v>
+          </cell>
+          <cell r="E21">
+            <v>1</v>
+          </cell>
+          <cell r="F21">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>8402325000</v>
+          </cell>
+          <cell r="E22">
+            <v>1</v>
+          </cell>
+          <cell r="F22">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>423632587</v>
+          </cell>
+          <cell r="E23">
+            <v>0.75</v>
+          </cell>
+          <cell r="F23">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>499067417</v>
+          </cell>
+          <cell r="E24">
+            <v>0.9</v>
+          </cell>
+          <cell r="F24">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>1254385900</v>
+          </cell>
+          <cell r="E25">
+            <v>0.85</v>
+          </cell>
+          <cell r="F25">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>1228504300</v>
+          </cell>
+          <cell r="E26">
+            <v>0.9</v>
+          </cell>
+          <cell r="F26">
+            <v>0.69043017348880997</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>577122512</v>
+          </cell>
+          <cell r="E27">
+            <v>1</v>
+          </cell>
+          <cell r="F27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>160479300</v>
+          </cell>
+          <cell r="E28">
+            <v>1</v>
+          </cell>
+          <cell r="F28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>586933775</v>
+          </cell>
+          <cell r="E29">
+            <v>0.9</v>
+          </cell>
+          <cell r="F29">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>1588953400</v>
+          </cell>
+          <cell r="E30">
+            <v>1</v>
+          </cell>
+          <cell r="F30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>591723400</v>
+          </cell>
+          <cell r="E31">
+            <v>0.8</v>
+          </cell>
+          <cell r="F31">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +780,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -427,6 +814,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -461,9 +849,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -636,14 +1025,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I3:K31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -694,8 +1095,20 @@
       <c r="H2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="b">
+        <f>D2='[1]Index Composition'!D2</f>
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <f>E2='[1]Index Composition'!E2</f>
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <f>F2='[1]Index Composition'!F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -720,8 +1133,20 @@
       <c r="H3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="b">
+        <f>D3='[1]Index Composition'!D3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <f>E3='[1]Index Composition'!E3</f>
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <f>F3='[1]Index Composition'!F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -746,8 +1171,20 @@
       <c r="H4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="b">
+        <f>D4='[1]Index Composition'!D4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <f>E4='[1]Index Composition'!E4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <f>F4='[1]Index Composition'!F4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -772,8 +1209,20 @@
       <c r="H5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="b">
+        <f>D5='[1]Index Composition'!D5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <f>E5='[1]Index Composition'!E5</f>
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <f>F5='[1]Index Composition'!F5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -798,8 +1247,20 @@
       <c r="H6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="b">
+        <f>D6='[1]Index Composition'!D6</f>
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <f>E6='[1]Index Composition'!E6</f>
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <f>F6='[1]Index Composition'!F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -824,8 +1285,20 @@
       <c r="H7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="b">
+        <f>D7='[1]Index Composition'!D7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <f>E7='[1]Index Composition'!E7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <f>F7='[1]Index Composition'!F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -850,8 +1323,20 @@
       <c r="H8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="b">
+        <f>D8='[1]Index Composition'!D8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <f>E8='[1]Index Composition'!E8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <f>F8='[1]Index Composition'!F8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -876,8 +1361,20 @@
       <c r="H9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="b">
+        <f>D9='[1]Index Composition'!D9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <f>E9='[1]Index Composition'!E9</f>
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <f>F9='[1]Index Composition'!F9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -902,8 +1399,20 @@
       <c r="H10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="b">
+        <f>D10='[1]Index Composition'!D10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <f>E10='[1]Index Composition'!E10</f>
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <f>F10='[1]Index Composition'!F10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -928,8 +1437,20 @@
       <c r="H11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="b">
+        <f>D11='[1]Index Composition'!D11</f>
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <f>E11='[1]Index Composition'!E11</f>
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <f>F11='[1]Index Composition'!F11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -954,8 +1475,20 @@
       <c r="H12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="b">
+        <f>D12='[1]Index Composition'!D12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <f>E12='[1]Index Composition'!E12</f>
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <f>F12='[1]Index Composition'!F12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -980,8 +1513,20 @@
       <c r="H13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="b">
+        <f>D13='[1]Index Composition'!D13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <f>E13='[1]Index Composition'!E13</f>
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <f>F13='[1]Index Composition'!F13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1006,8 +1551,20 @@
       <c r="H14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="b">
+        <f>D14='[1]Index Composition'!D14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <f>E14='[1]Index Composition'!E14</f>
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <f>F14='[1]Index Composition'!F14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1032,8 +1589,20 @@
       <c r="H15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="b">
+        <f>D15='[1]Index Composition'!D15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <f>E15='[1]Index Composition'!E15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <f>F15='[1]Index Composition'!F15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1058,8 +1627,20 @@
       <c r="H16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="b">
+        <f>D16='[1]Index Composition'!D16</f>
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <f>E16='[1]Index Composition'!E16</f>
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <f>F16='[1]Index Composition'!F16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1084,8 +1665,20 @@
       <c r="H17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="b">
+        <f>D17='[1]Index Composition'!D17</f>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <f>E17='[1]Index Composition'!E17</f>
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <f>F17='[1]Index Composition'!F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1110,8 +1703,20 @@
       <c r="H18" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="b">
+        <f>D18='[1]Index Composition'!D18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f>E18='[1]Index Composition'!E18</f>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f>F18='[1]Index Composition'!F18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1136,8 +1741,20 @@
       <c r="H19" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="b">
+        <f>D19='[1]Index Composition'!D19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <f>E19='[1]Index Composition'!E19</f>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f>F19='[1]Index Composition'!F19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1162,8 +1779,20 @@
       <c r="H20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="b">
+        <f>D20='[1]Index Composition'!D20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f>E20='[1]Index Composition'!E20</f>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f>F20='[1]Index Composition'!F20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1188,8 +1817,20 @@
       <c r="H21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="b">
+        <f>D21='[1]Index Composition'!D21</f>
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <f>E21='[1]Index Composition'!E21</f>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f>F21='[1]Index Composition'!F21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1214,8 +1855,20 @@
       <c r="H22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="b">
+        <f>D22='[1]Index Composition'!D22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f>E22='[1]Index Composition'!E22</f>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f>F22='[1]Index Composition'!F22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1240,8 +1893,20 @@
       <c r="H23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="b">
+        <f>D23='[1]Index Composition'!D23</f>
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <f>E23='[1]Index Composition'!E23</f>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f>F23='[1]Index Composition'!F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1266,8 +1931,20 @@
       <c r="H24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="b">
+        <f>D24='[1]Index Composition'!D24</f>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f>E24='[1]Index Composition'!E24</f>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f>F24='[1]Index Composition'!F24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1292,8 +1969,20 @@
       <c r="H25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="b">
+        <f>D25='[1]Index Composition'!D25</f>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <f>E25='[1]Index Composition'!E25</f>
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <f>F25='[1]Index Composition'!F25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1999,7 @@
         <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.69043017348881</v>
+        <v>0.69043017348880997</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -1318,8 +2007,20 @@
       <c r="H26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="b">
+        <f>D26='[1]Index Composition'!D26</f>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <f>E26='[1]Index Composition'!E26</f>
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <f>F26='[1]Index Composition'!F26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1344,8 +2045,20 @@
       <c r="H27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="b">
+        <f>D27='[1]Index Composition'!D27</f>
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <f>E27='[1]Index Composition'!E27</f>
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <f>F27='[1]Index Composition'!F27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1370,8 +2083,20 @@
       <c r="H28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="b">
+        <f>D28='[1]Index Composition'!D28</f>
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <f>E28='[1]Index Composition'!E28</f>
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <f>F28='[1]Index Composition'!F28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1396,8 +2121,20 @@
       <c r="H29" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="b">
+        <f>D29='[1]Index Composition'!D29</f>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <f>E29='[1]Index Composition'!E29</f>
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <f>F29='[1]Index Composition'!F29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1422,8 +2159,20 @@
       <c r="H30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="b">
+        <f>D30='[1]Index Composition'!D30</f>
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <f>E30='[1]Index Composition'!E30</f>
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <f>F30='[1]Index Composition'!F30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1448,21 +2197,36 @@
       <c r="H31" t="s">
         <v>80</v>
       </c>
+      <c r="I31" t="b">
+        <f>D31='[1]Index Composition'!D31</f>
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <f>E31='[1]Index Composition'!E31</f>
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <f>F31='[1]Index Composition'!F31</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +2248,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1497,18 +2261,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -1530,7 +2297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1543,5 +2310,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/GUI + Reviews/202512/Review 202512/Dataiku/EFESP_EMS_2025-12-11_2025-12-11-23-33-46.xlsx
+++ b/GUI + Reviews/202512/Review 202512/Dataiku/EFESP_EMS_2025-12-11_2025-12-11-23-33-46.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202512/Review 202512/Dataiku/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_85EB892929467CE834543A753E95CA1D1DDAF16D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE9F2E2-32B5-49CE-B0E0-648D1D86AB7D}"/>
   <bookViews>
-    <workbookView xWindow="-29370" yWindow="195" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="selection" sheetId="1" r:id="rId1"/>
     <sheet name="inclusion" sheetId="2" r:id="rId2"/>
     <sheet name="exclusion" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -307,8 +285,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,378 +349,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Index Composition"/>
-      <sheetName val="Eligible Companies"/>
-      <sheetName val="Inclusion"/>
-      <sheetName val="Exclusion"/>
-      <sheetName val="Full Universe"/>
-      <sheetName val="Index Market Cap"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2">
-            <v>1843899200</v>
-          </cell>
-          <cell r="E2">
-            <v>0.85</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>1500000000</v>
-          </cell>
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>792283683</v>
-          </cell>
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>450499200</v>
-          </cell>
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>419068180</v>
-          </cell>
-          <cell r="E6">
-            <v>1</v>
-          </cell>
-          <cell r="F6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>1055050400</v>
-          </cell>
-          <cell r="E7">
-            <v>0.95</v>
-          </cell>
-          <cell r="F7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>3357576400</v>
-          </cell>
-          <cell r="E8">
-            <v>0.75</v>
-          </cell>
-          <cell r="F8">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1560876000</v>
-          </cell>
-          <cell r="E9">
-            <v>1</v>
-          </cell>
-          <cell r="F9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>3002789000</v>
-          </cell>
-          <cell r="E10">
-            <v>1</v>
-          </cell>
-          <cell r="F10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="D11">
-            <v>1200000000</v>
-          </cell>
-          <cell r="E11">
-            <v>0.85</v>
-          </cell>
-          <cell r="F11">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>240444520</v>
-          </cell>
-          <cell r="E12">
-            <v>0.8</v>
-          </cell>
-          <cell r="F12">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="D13">
-            <v>379645360</v>
-          </cell>
-          <cell r="E13">
-            <v>1</v>
-          </cell>
-          <cell r="F13">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="D14">
-            <v>2595227800</v>
-          </cell>
-          <cell r="E14">
-            <v>0.8</v>
-          </cell>
-          <cell r="F14">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="D15">
-            <v>566875500</v>
-          </cell>
-          <cell r="E15">
-            <v>0.95</v>
-          </cell>
-          <cell r="F15">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="D16">
-            <v>453187130</v>
-          </cell>
-          <cell r="E16">
-            <v>0.85</v>
-          </cell>
-          <cell r="F16">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="D17">
-            <v>262245733</v>
-          </cell>
-          <cell r="E17">
-            <v>1</v>
-          </cell>
-          <cell r="F17">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="D18">
-            <v>2378947836</v>
-          </cell>
-          <cell r="E18">
-            <v>0.5</v>
-          </cell>
-          <cell r="F18">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="D19">
-            <v>296401348</v>
-          </cell>
-          <cell r="E19">
-            <v>1</v>
-          </cell>
-          <cell r="F19">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="D20">
-            <v>1907070957</v>
-          </cell>
-          <cell r="E20">
-            <v>1</v>
-          </cell>
-          <cell r="F20">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="D21">
-            <v>46002533</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="D22">
-            <v>8402325000</v>
-          </cell>
-          <cell r="E22">
-            <v>1</v>
-          </cell>
-          <cell r="F22">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="D23">
-            <v>423632587</v>
-          </cell>
-          <cell r="E23">
-            <v>0.75</v>
-          </cell>
-          <cell r="F23">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24">
-            <v>499067417</v>
-          </cell>
-          <cell r="E24">
-            <v>0.9</v>
-          </cell>
-          <cell r="F24">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="D25">
-            <v>1254385900</v>
-          </cell>
-          <cell r="E25">
-            <v>0.85</v>
-          </cell>
-          <cell r="F25">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>1228504300</v>
-          </cell>
-          <cell r="E26">
-            <v>0.9</v>
-          </cell>
-          <cell r="F26">
-            <v>0.69043017348880997</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="D27">
-            <v>577122512</v>
-          </cell>
-          <cell r="E27">
-            <v>1</v>
-          </cell>
-          <cell r="F27">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="D28">
-            <v>160479300</v>
-          </cell>
-          <cell r="E28">
-            <v>1</v>
-          </cell>
-          <cell r="F28">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="D29">
-            <v>586933775</v>
-          </cell>
-          <cell r="E29">
-            <v>0.9</v>
-          </cell>
-          <cell r="F29">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="D30">
-            <v>1588953400</v>
-          </cell>
-          <cell r="E30">
-            <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="D31">
-            <v>591723400</v>
-          </cell>
-          <cell r="E31">
-            <v>0.8</v>
-          </cell>
-          <cell r="F31">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -780,7 +393,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -814,7 +427,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -849,10 +461,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,26 +636,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I3:K31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1095,20 +694,8 @@
       <c r="H2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="b">
-        <f>D2='[1]Index Composition'!D2</f>
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <f>E2='[1]Index Composition'!E2</f>
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <f>F2='[1]Index Composition'!F2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1133,20 +720,8 @@
       <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="b">
-        <f>D3='[1]Index Composition'!D3</f>
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <f>E3='[1]Index Composition'!E3</f>
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <f>F3='[1]Index Composition'!F3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1171,20 +746,8 @@
       <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="b">
-        <f>D4='[1]Index Composition'!D4</f>
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <f>E4='[1]Index Composition'!E4</f>
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <f>F4='[1]Index Composition'!F4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1209,20 +772,8 @@
       <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="b">
-        <f>D5='[1]Index Composition'!D5</f>
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <f>E5='[1]Index Composition'!E5</f>
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <f>F5='[1]Index Composition'!F5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1247,20 +798,8 @@
       <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="b">
-        <f>D6='[1]Index Composition'!D6</f>
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <f>E6='[1]Index Composition'!E6</f>
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <f>F6='[1]Index Composition'!F6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1285,20 +824,8 @@
       <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="I7" t="b">
-        <f>D7='[1]Index Composition'!D7</f>
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <f>E7='[1]Index Composition'!E7</f>
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <f>F7='[1]Index Composition'!F7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1323,20 +850,8 @@
       <c r="H8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" t="b">
-        <f>D8='[1]Index Composition'!D8</f>
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <f>E8='[1]Index Composition'!E8</f>
-        <v>1</v>
-      </c>
-      <c r="K8" t="b">
-        <f>F8='[1]Index Composition'!F8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1361,20 +876,8 @@
       <c r="H9" t="s">
         <v>82</v>
       </c>
-      <c r="I9" t="b">
-        <f>D9='[1]Index Composition'!D9</f>
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <f>E9='[1]Index Composition'!E9</f>
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <f>F9='[1]Index Composition'!F9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1399,20 +902,8 @@
       <c r="H10" t="s">
         <v>81</v>
       </c>
-      <c r="I10" t="b">
-        <f>D10='[1]Index Composition'!D10</f>
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <f>E10='[1]Index Composition'!E10</f>
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <f>F10='[1]Index Composition'!F10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1437,20 +928,8 @@
       <c r="H11" t="s">
         <v>80</v>
       </c>
-      <c r="I11" t="b">
-        <f>D11='[1]Index Composition'!D11</f>
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <f>E11='[1]Index Composition'!E11</f>
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <f>F11='[1]Index Composition'!F11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1475,20 +954,8 @@
       <c r="H12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="b">
-        <f>D12='[1]Index Composition'!D12</f>
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <f>E12='[1]Index Composition'!E12</f>
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <f>F12='[1]Index Composition'!F12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1513,20 +980,8 @@
       <c r="H13" t="s">
         <v>81</v>
       </c>
-      <c r="I13" t="b">
-        <f>D13='[1]Index Composition'!D13</f>
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <f>E13='[1]Index Composition'!E13</f>
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <f>F13='[1]Index Composition'!F13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1551,20 +1006,8 @@
       <c r="H14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" t="b">
-        <f>D14='[1]Index Composition'!D14</f>
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <f>E14='[1]Index Composition'!E14</f>
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <f>F14='[1]Index Composition'!F14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1589,20 +1032,8 @@
       <c r="H15" t="s">
         <v>79</v>
       </c>
-      <c r="I15" t="b">
-        <f>D15='[1]Index Composition'!D15</f>
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <f>E15='[1]Index Composition'!E15</f>
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <f>F15='[1]Index Composition'!F15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1627,20 +1058,8 @@
       <c r="H16" t="s">
         <v>80</v>
       </c>
-      <c r="I16" t="b">
-        <f>D16='[1]Index Composition'!D16</f>
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <f>E16='[1]Index Composition'!E16</f>
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <f>F16='[1]Index Composition'!F16</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1665,20 +1084,8 @@
       <c r="H17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="b">
-        <f>D17='[1]Index Composition'!D17</f>
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <f>E17='[1]Index Composition'!E17</f>
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <f>F17='[1]Index Composition'!F17</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1703,20 +1110,8 @@
       <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="I18" t="b">
-        <f>D18='[1]Index Composition'!D18</f>
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <f>E18='[1]Index Composition'!E18</f>
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <f>F18='[1]Index Composition'!F18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1741,20 +1136,8 @@
       <c r="H19" t="s">
         <v>80</v>
       </c>
-      <c r="I19" t="b">
-        <f>D19='[1]Index Composition'!D19</f>
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <f>E19='[1]Index Composition'!E19</f>
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <f>F19='[1]Index Composition'!F19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1779,20 +1162,8 @@
       <c r="H20" t="s">
         <v>80</v>
       </c>
-      <c r="I20" t="b">
-        <f>D20='[1]Index Composition'!D20</f>
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <f>E20='[1]Index Composition'!E20</f>
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <f>F20='[1]Index Composition'!F20</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1817,20 +1188,8 @@
       <c r="H21" t="s">
         <v>80</v>
       </c>
-      <c r="I21" t="b">
-        <f>D21='[1]Index Composition'!D21</f>
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <f>E21='[1]Index Composition'!E21</f>
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <f>F21='[1]Index Composition'!F21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1855,20 +1214,8 @@
       <c r="H22" t="s">
         <v>81</v>
       </c>
-      <c r="I22" t="b">
-        <f>D22='[1]Index Composition'!D22</f>
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <f>E22='[1]Index Composition'!E22</f>
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <f>F22='[1]Index Composition'!F22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1893,20 +1240,8 @@
       <c r="H23" t="s">
         <v>80</v>
       </c>
-      <c r="I23" t="b">
-        <f>D23='[1]Index Composition'!D23</f>
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <f>E23='[1]Index Composition'!E23</f>
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <f>F23='[1]Index Composition'!F23</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1931,20 +1266,8 @@
       <c r="H24" t="s">
         <v>80</v>
       </c>
-      <c r="I24" t="b">
-        <f>D24='[1]Index Composition'!D24</f>
-        <v>1</v>
-      </c>
-      <c r="J24" t="b">
-        <f>E24='[1]Index Composition'!E24</f>
-        <v>1</v>
-      </c>
-      <c r="K24" t="b">
-        <f>F24='[1]Index Composition'!F24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1969,20 +1292,8 @@
       <c r="H25" t="s">
         <v>82</v>
       </c>
-      <c r="I25" t="b">
-        <f>D25='[1]Index Composition'!D25</f>
-        <v>1</v>
-      </c>
-      <c r="J25" t="b">
-        <f>E25='[1]Index Composition'!E25</f>
-        <v>1</v>
-      </c>
-      <c r="K25" t="b">
-        <f>F25='[1]Index Composition'!F25</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +1310,7 @@
         <v>0.9</v>
       </c>
       <c r="F26">
-        <v>0.69043017348880997</v>
+        <v>0.69043017348881</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -2007,20 +1318,8 @@
       <c r="H26" t="s">
         <v>80</v>
       </c>
-      <c r="I26" t="b">
-        <f>D26='[1]Index Composition'!D26</f>
-        <v>1</v>
-      </c>
-      <c r="J26" t="b">
-        <f>E26='[1]Index Composition'!E26</f>
-        <v>1</v>
-      </c>
-      <c r="K26" t="b">
-        <f>F26='[1]Index Composition'!F26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2045,20 +1344,8 @@
       <c r="H27" t="s">
         <v>80</v>
       </c>
-      <c r="I27" t="b">
-        <f>D27='[1]Index Composition'!D27</f>
-        <v>1</v>
-      </c>
-      <c r="J27" t="b">
-        <f>E27='[1]Index Composition'!E27</f>
-        <v>1</v>
-      </c>
-      <c r="K27" t="b">
-        <f>F27='[1]Index Composition'!F27</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -2083,20 +1370,8 @@
       <c r="H28" t="s">
         <v>79</v>
       </c>
-      <c r="I28" t="b">
-        <f>D28='[1]Index Composition'!D28</f>
-        <v>1</v>
-      </c>
-      <c r="J28" t="b">
-        <f>E28='[1]Index Composition'!E28</f>
-        <v>1</v>
-      </c>
-      <c r="K28" t="b">
-        <f>F28='[1]Index Composition'!F28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -2121,20 +1396,8 @@
       <c r="H29" t="s">
         <v>80</v>
       </c>
-      <c r="I29" t="b">
-        <f>D29='[1]Index Composition'!D29</f>
-        <v>1</v>
-      </c>
-      <c r="J29" t="b">
-        <f>E29='[1]Index Composition'!E29</f>
-        <v>1</v>
-      </c>
-      <c r="K29" t="b">
-        <f>F29='[1]Index Composition'!F29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -2159,20 +1422,8 @@
       <c r="H30" t="s">
         <v>82</v>
       </c>
-      <c r="I30" t="b">
-        <f>D30='[1]Index Composition'!D30</f>
-        <v>1</v>
-      </c>
-      <c r="J30" t="b">
-        <f>E30='[1]Index Composition'!E30</f>
-        <v>1</v>
-      </c>
-      <c r="K30" t="b">
-        <f>F30='[1]Index Composition'!F30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -2197,36 +1448,21 @@
       <c r="H31" t="s">
         <v>80</v>
       </c>
-      <c r="I31" t="b">
-        <f>D31='[1]Index Composition'!D31</f>
-        <v>1</v>
-      </c>
-      <c r="J31" t="b">
-        <f>E31='[1]Index Composition'!E31</f>
-        <v>1</v>
-      </c>
-      <c r="K31" t="b">
-        <f>F31='[1]Index Composition'!F31</f>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2248,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -2261,21 +1497,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2286,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2297,7 +1530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -2310,8 +1543,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;KFFEF00 PRIVATE</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>